--- a/USA_college_university.xlsx
+++ b/USA_college_university.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1126j\file for python\25-1 dataJ\25-1-DataJournalism-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD57CC9A-70CA-461D-9B81-0735CF81069C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DC5AD5-381B-43A5-B726-C2EEB3F5E60E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7176" windowHeight="1932" xr2:uid="{18FA586D-14B2-4C5B-BA8C-A6DB7940A919}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8340" xr2:uid="{18FA586D-14B2-4C5B-BA8C-A6DB7940A919}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,127 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>박지윤</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{E433EF8A-0A38-4849-BFE0-85221C12C18E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>박지윤</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파일명</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ""</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확장자까지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>img_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,12 +236,79 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>University of Chicago</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown University</t>
+  </si>
+  <si>
+    <t>*At Brown University, the purpose of undergraduate education is to foster the intellectual and personal growth of the individual student.*
+The mission of the College is to support students as drivers of their academic pathways . The College staff and advising community take steps to ensure that students are:
+Engaged
+Students are seen as active participants in framing their own education. The College emphasizes building relationships with and among students, staff, faculty and alumni, recognizing that intentional collaboration is the foundation for shared learning and collective impact. 
+Empowered
+All members of the Brown community are empowered to pursue continuous intellectual, personal and professional growth. To facilitate this, the College works to ensure that administrative structures, rules and regulations provide students with opportunities to develop and achieve their educational goals. 
+Transformed
+The College partners with students in building lives of sustained learning, meaning and purpose. We do this by cultivating intellectual risk-taking through the Open Curriculum, and by embracing the value of listening — of understanding that the views and experiences of others are part of the learning experience. This reinforces the community's commitment to making the world a better place through learning, research, advocacy and public service.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**학생 주도적 학습과 지적인 성장:**
+브라운은 참여적 학습을 통해 학생이 자신의 학업 경로를 주도하고 역량을 강화하며, 학문·연구·공공봉사 활동을 통해 사회적으로 기여하는 것을 최우선 가치로 삼는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://college.brown.edu/about</t>
+  </si>
+  <si>
+    <t>The University of Chicago College is one of the most influential undergraduate institutions of liberal learning in the world. Devoted to advancing knowledge and to encouraging the habits of critical reflection, rigorous discussion, and uninhibited discourse, UChicago affirms the power of imaginative educational practices to advance creative learning and enrich civic life.
+What we value:
+Diversity of people, thought, and ideas
+New knowledge cannot be formed when we’re hindered by old ways of thinking. By cultivating a wide range of thoughts from our peers, students, and the communities where we live and work, we are better able to bring forth ideas that change the world.
+Supporting our community in Chicago and beyond
+While our outreach efforts span the globe, we place a distinct emphasis on supporting our neighbors on the South Side of Chicago. We do this by leveraging our financial resources, as well as the power of education, research, and innovation, to promote meaningful change.
+Free and open discourse
+We believe in the power and protection of free speech. It fosters an unfettered exchange of ideas, forces us to re-examine our assumptions, and opens the door to original ideas. An education with free and open debate empowers students to grapple with challenging ideas.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://college.uchicago.edu/about
+https://www.uchicago.edu/who-we-are/what-we-value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**비판적 사고와 자유 담론을 통한 창의적 학습:**
+시카고는 다양한 배경의 구성원들이 비판적 성찰과 토론, 자유로운 담론을 통해 기존 사고의 한계를 뛰어넘어 새로운 지식을 창출하고, 지역사회와의 협력을 바탕으로 의미 있는 사회 변화를 이끌어내는 것을 최우선 가치로 삼는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"chicago_img.png"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"brown_img.png"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>program_img_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>program_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +340,27 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF001D35"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,7 +387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,6 +396,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -504,11 +717,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC4F427-53A9-4AE8-9116-1C862B848CD3}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC4F427-53A9-4AE8-9116-1C862B848CD3}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -518,9 +731,11 @@
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="46.796875" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="45.5" customWidth="1"/>
+    <col min="7" max="7" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -536,8 +751,14 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="348" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="348" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -553,8 +774,11 @@
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="382.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="382.8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -569,6 +793,50 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -579,5 +847,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/USA_college_university.xlsx
+++ b/USA_college_university.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1126j\file for python\25-1 dataJ\25-1-DataJournalism-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DC5AD5-381B-43A5-B726-C2EEB3F5E60E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F61C8B-3F0A-4A36-B9BB-F3FCAC4EC124}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8340" xr2:uid="{18FA586D-14B2-4C5B-BA8C-A6DB7940A919}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>img_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,28 +279,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"chicago_img.png"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"brown_img.png"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>program_img_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>program_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>**비판적 사고와 자유 담론을 통한 창의적 학습:**
 시카고는 다양한 배경의 구성원들이 비판적 성찰과 토론, 자유로운 담론을 통해 기존 사고의 한계를 뛰어넘어 새로운 지식을 창출하고, 지역사회와의 협력을 바탕으로 의미 있는 사회 변화를 이끌어내는 것을 최우선 가치로 삼는다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"chicago_img.png"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"brown_img.png"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>program_img_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>program_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
+    <t>브라운 대학교의 'Open Curriculum'은 글쓰기 2과목을 제외하고는 필수 교양이 존재하지 않는다. 학생들은 80개 이상의 전공 중에서 자유롭게 과목을 선택할 수 있으며, 심지어 본인만의 독립전공을 설계할 수도 있다. 이는 '학생 주도의 교육'이라는 브라운 대학교의 철학이 잘 녹아든 예시로 볼 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하버드 대학교는 시민과 시민-리더를 기르기 위해 교실 안과 밖에서 균형 잡힌 교육을 실천한다. 공통교육과정에서는 Liberal Arts 중심의 학문 탐색을 통해 비판적 사고와 공동체 의식을 키우고, 비교과 프로그램에서는 봉사, 사회참여, 협업 프로젝트를 통해 실천적 시민성을 체화하게 한다. 지식과 참여가 자연스럽게 연결된 구조 속에서, 학생들은 공감과 책임의 리더십을 익혀나간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시카고 대학은 '다학제 융합'과 '실전 문제해결'을 핵심으로 한 혁신적 교육 모델을 운영하고 있다.
+Core Curriculum은 인문학부터 자연과학까지 폭넓게 구성되며, 소규모 세미나와 소크라테스식 토론을 통해 비판적 사고와 창의성을 기른다. 교실 밖에서는 'Urban Labs'와 연구인턴십을 통해 지역사회 문제 해결에 참여하며, 실전 역량을 강화한다. 이러한 통합적 교육은 학생들의 혁신적 사고력 함양에 기여하고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yale 대학교는 liberal education의 이상을 실현하기 위해 체계적이고 유연한 커리큘럼을 운영한다. 또한, Yale은 교수 전원이 학부 수업에 참여하도록 함으로써 학부생이 세계적 연구자들과 밀접하게 소통하고 토론할 수 있는 기회를 제공한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC4F427-53A9-4AE8-9116-1C862B848CD3}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -732,7 +745,7 @@
     <col min="4" max="4" width="46.796875" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
     <col min="6" max="6" width="45.5" customWidth="1"/>
-    <col min="7" max="7" width="34.5" customWidth="1"/>
+    <col min="7" max="7" width="34.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -752,10 +765,10 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="348" x14ac:dyDescent="0.4">
@@ -774,8 +787,8 @@
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="382.8" x14ac:dyDescent="0.4">
@@ -794,8 +807,8 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>27</v>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
@@ -803,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>21</v>
@@ -812,11 +825,11 @@
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
@@ -824,7 +837,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -835,7 +848,7 @@
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
     </row>

--- a/USA_college_university.xlsx
+++ b/USA_college_university.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1126j\file for python\25-1 dataJ\25-1-DataJournalism-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F61C8B-3F0A-4A36-B9BB-F3FCAC4EC124}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83399C8-2524-42C9-9C87-FA9BF725EBBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8340" xr2:uid="{18FA586D-14B2-4C5B-BA8C-A6DB7940A919}"/>
   </bookViews>
@@ -300,20 +300,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>브라운 대학교의 'Open Curriculum'은 글쓰기 2과목을 제외하고는 필수 교양이 존재하지 않는다. 학생들은 80개 이상의 전공 중에서 자유롭게 과목을 선택할 수 있으며, 심지어 본인만의 독립전공을 설계할 수도 있다. 이는 '학생 주도의 교육'이라는 브라운 대학교의 철학이 잘 녹아든 예시로 볼 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하버드 대학교는 시민과 시민-리더를 기르기 위해 교실 안과 밖에서 균형 잡힌 교육을 실천한다. 공통교육과정에서는 Liberal Arts 중심의 학문 탐색을 통해 비판적 사고와 공동체 의식을 키우고, 비교과 프로그램에서는 봉사, 사회참여, 협업 프로젝트를 통해 실천적 시민성을 체화하게 한다. 지식과 참여가 자연스럽게 연결된 구조 속에서, 학생들은 공감과 책임의 리더십을 익혀나간다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시카고 대학은 '다학제 융합'과 '실전 문제해결'을 핵심으로 한 혁신적 교육 모델을 운영하고 있다.
-Core Curriculum은 인문학부터 자연과학까지 폭넓게 구성되며, 소규모 세미나와 소크라테스식 토론을 통해 비판적 사고와 창의성을 기른다. 교실 밖에서는 'Urban Labs'와 연구인턴십을 통해 지역사회 문제 해결에 참여하며, 실전 역량을 강화한다. 이러한 통합적 교육은 학생들의 혁신적 사고력 함양에 기여하고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yale 대학교는 liberal education의 이상을 실현하기 위해 체계적이고 유연한 커리큘럼을 운영한다. 또한, Yale은 교수 전원이 학부 수업에 참여하도록 함으로써 학부생이 세계적 연구자들과 밀접하게 소통하고 토론할 수 있는 기회를 제공한다.</t>
+    <t>예일대학교는 변화하는 사회 속에서 책임감 있게 살아갈 수 있는 자율적이고 넓은 시야를 지닌 시민을 길러내는 것을 목표로 한다. 공통교육과정에서는 인문, 예술, 과학 등 다양한 분야를 넘나드는 리버럴 아츠 교육을 통해 사고력과 판단력을 키우고, 비교과 프로그램에서는 공동체 생활과 자유로운 토론을 통해 학문과 삶이 자연스럽게 연결되는 배움을 추구한다. 이를 통해 예일은 학생들이 복잡한 세상 속에서도 주도적이고 유연하게 살아갈 수 있도록 돕는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라운대학교는 학생 개개인의 지적·개인적 성장을 중심에 둔 교육을 지향한다. 공통교육에서는 ‘오픈 커리큘럼’을 통해 학생이 스스로 교육 경로를 설계하고, 다양한 경험과 관점을 학습의 일부로 받아들이며 지적 모험을 장려한다. 비교과 영역에서도 학생 간 협력과 커뮤니티 기반 학습을 강조하며, 행정 제도 역시 자율성과 실천적 성장을 뒷받침하는 방향으로 설계되어 있다. 브라운은 학생이 단순한 수혜자가 아닌, 교육의 공동 설계자로 성장하는 공간을 만들고자 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시카고대학교는 비판적 사고, 치열한 토론, 자유로운 표현을 교육의 핵심 가치로 삼는다. 공통교육과정에서는 자유로운 학문 탐구와 상상력 있는 교육 실천을 통해 학생들이 창의적이고 시민적인 사고를 키울 수 있도록 이끈다. 비교과 측면에서는 지역사회 참여와 다양성 존중을 강조하며, 특히 시카고 사우스사이드 지역과의 연대를 통해 교육의 사회적 책임을 실현해 나간다. 시카고대는 도전적인 질문과 열린 논쟁 속에서 배움이 자란다고 믿는다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC4F427-53A9-4AE8-9116-1C862B848CD3}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -788,7 +787,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="382.8" x14ac:dyDescent="0.4">
@@ -808,7 +807,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
@@ -829,7 +828,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
@@ -849,7 +848,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/USA_college_university.xlsx
+++ b/USA_college_university.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1126j\file for python\25-1 dataJ\25-1-DataJournalism-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83399C8-2524-42C9-9C87-FA9BF725EBBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8B0A1A-B762-4462-B411-39CB492551E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8340" xr2:uid="{18FA586D-14B2-4C5B-BA8C-A6DB7940A919}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>img_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,83 @@
   </si>
   <si>
     <t>시카고대학교는 비판적 사고, 치열한 토론, 자유로운 표현을 교육의 핵심 가치로 삼는다. 공통교육과정에서는 자유로운 학문 탐구와 상상력 있는 교육 실천을 통해 학생들이 창의적이고 시민적인 사고를 키울 수 있도록 이끈다. 비교과 측면에서는 지역사회 참여와 다양성 존중을 강조하며, 특히 시카고 사우스사이드 지역과의 연대를 통해 교육의 사회적 책임을 실현해 나간다. 시카고대는 도전적인 질문과 열린 논쟁 속에서 배움이 자란다고 믿는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snu_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울대학교는 ‘학부대학’이라는 새로운 교육 조직을 출범시키며 학부교육의 전면적 개편에 착수했다. 무전공 입학, 공통교양 체계화, 마이크로디그리 도입은 단순한 제도 변경이 아닌, ‘도전과 공감으로 미래를 여는 지성’이라는 인재상 구현을 위한 구조 재설계였다. 학생이 주도적으로 학습 경로를 설계하고, 다양한 학문을 유연하게 넘나들 수 있도록 제도적 기반을 마련한 것이 핵심이다.
+하버드대학교 역시 비슷한 교육 철학을 공유한다. “시민과 시민-리더 양성”이라는 사명 아래, 하버드는 리버럴 아츠 교육을 중심에 두고 교내외의 협력 프로그램—공공봉사, 사회참여, 정치적 실천 등—을 통해 학생이 공동체 속에서 책임 있는 주체로 성장하도록 유도한다. 즉, ‘교육’을 사회적 참여와 긴밀히 연결된 과정으로 설계한다.
+서울대와 하버드 모두 교육의 중심을 ‘학생’에 두고 있다는 점은 동일하다. 하지만 실현 방식에는 차이가 있다. 서울대는 전공 선택과 교육 설계를 유연하게 만드는 제도적 장치에 무게를 두는 반면, 하버드는 비교과와 지역 커뮤니티 활동을 통해 학생이 직접 ‘참여’하며 배움을 내면화하도록 설계한다. 하나는 구조를 열고, 다른 하나는 경험을 넓힌다.
+서울대는 이제 막 학부대학 체제를 도입한 단계지만, 그 설계 방향만큼은 하버드의 전통적 교육 철학과 일정 부분 겹친다. 학문 간 경계 허물기, 학생 주도성 강화, 사회적 책임의 내재화라는 키워드는 두 대학이 공통으로 강조하는 지점이다. 결국, 오늘날의 교양교육은 더 이상 ‘무엇을 가르치는가’보다 ‘어떻게 사고하게 만드는가’를 중심으로 재편되고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>서울대학교 학부대학이 지향하는 교육은 “도전과 공감으로 미래를 여는 지성”이라는 인재상을 중심에 둔다. 무전공 입학 확대, 공통교양 개편, 마이크로디그리 도입 같은 제도적 변화는 단순한 운영 효율화를 넘어서, 학생이 주도적으로 교육 경로를 설계하고 융합적 사고를 통해 사회적 책임을 실천하도록 유도하는 구조 설계다.
+예일대학교 역시 비슷한 질문을 던진다. 예일은 서로 다른 배경의 학생들이 공동체 속에서 지적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>‧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>도덕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>‧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시민적 역량을 길러, 복잡하고 빠르게 변화하는 사회에 자율적 시민으로 기여할 수 있도록 돕는다. 리버럴 아츠 기반의 교육은 학문 간 경계를 넘나들며 사고의 폭을 넓히고, 레지덴셜 칼리지 기반의 비교과 환경은 공동체적 학습을 통한 성장을 지향한다.
+공통점은 분명하다. 두 학교 모두 교양교육을 통해 폭넓은 사고력과 사회적 성찰 역량을 강조하고 있으며, 전통적인 전공 중심 교육을 넘어 학생 주도적 학습과 융합형 인재를 키우려는 점에서 닮아 있다. 그러나 실행 방식에서는 차이가 있다. 서울대는 제도 설계와 행정적 지원을 통한 유연한 학사구조 개편에 방점을 두는 반면, 예일은 경험 기반의 교육환경과 커뮤니티 중심 구조를 통해 자연스러운 내면화를 유도한다.
+결국 두 대학 모두 ‘무엇을 배울 것인가’보다 ‘어떻게 사고할 것인가’에 더 큰 관심을 기울인다. 서울대의 학부대학이 이제 막 첫걸음을 뗀 단계라면, 예일은 오랜 전통을 통해 그 이상을 실천해 온 사례다. 하지만 방향은 같다. 지식보다 더 깊은 것, 바로 판단력, 책임감, 그리고 공감 능력을 갖춘 시민 양성이다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울대학교 학부대학과 시카고대학교의 학부 교육 비전은 각각 독자적인 구조와 철학을 갖고 있지만, 두 학교가 공유하는 핵심 키워드도 분명하다. 바로 비판적 사고, 학문 간 경계의 허물기, 그리고 시민적 책임의 내면화다.
+시카고대학교는 학문 탐구에 있어 ‘논쟁’과 ‘사유’를 최전선에 세운다. 공통교육과정은 자유 담론을 중심으로 구성되어 있으며, 학생들은 기존의 정답을 배우기보다 끊임없이 질문을 던지고 서로 다른 생각과 충돌하며 스스로 사고의 방향을 정립해간다. 특히 “사우스사이드 지역사회와의 연대”를 강조하는 점은, 지식이 교실 안에서 머물지 않고 공공적 실천으로 이어져야 한다는 가치관을 반영한다. 이는 단지 지역 봉사 차원의 접근이 아니라, 교육 자체가 사회적 맥락 속에서 작동해야 한다는 믿음의 결과다.
+서울대학교 학부대학 또한 무전공 입학, 융합 전공, 마이크로디그리 도입 등을 통해 단일 학문 중심 교육에서 벗어나 열린 사고와 주도적 학습 설계를 강조한다. 학부대학의 비전은 “도전과 공감”이라는 키워드에 응축되어 있으며, 융합적 사고를 통해 미래 사회의 불확실성을 주도적으로 탐색할 수 있는 지성을 기르려 한다.
+두 대학은 공통적으로 자율적 사고와 사회적 실천의 연결을 중시하지만, 그 방식은 다르다. 시카고가 ‘논쟁과 자유로운 표현’이라는 경험적 틀 안에서 배움이 이뤄지도록 설계했다면, 서울대는 제도 설계와 교양 교육 개편을 통해 점진적으로 학생 주체 중심의 생태계를 조성하는 중이다.
+결국 두 학교 모두 "교양이란 무엇인가"라는 질문에 대해, 단지 폭넓은 지식이 아니라 자신의 생각을 만들어내고 그것을 사회와 연결할 수 있는 힘이라고 응답하고 있다. 그리고 그 힘은, 강의실보다 강의실 바깥에서 더 자주 증명된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울대학교 학부대학과 브라운대학교는 모두 학생의 주체성과 자율성을 핵심 가치로 삼는다. 그러나 그 구현 방식과 교육 문화에는 흥미로운 차이가 있다.
+브라운대학교의 교육은 철저히 학생 주도적 설계에 기반을 둔다. ‘오픈 커리큘럼’이라는 독특한 제도를 통해 학생은 전공 구분이나 필수 교양의 제한 없이 자신의 교육 경로를 직접 구성한다. 대학은 이 과정에서 가이드이자 동반자로서 학생의 선택을 지원하고, 행정적 장벽을 제거하며 자기주도 학습과 지적 탐색을 촉진한다. 브라운의 교육은 학생을 단순한 수강생이 아닌 ‘교육의 공동 설계자’로 바라보는 점에서, 진정한 의미의 참여적 학습 구조라 할 수 있다.
+서울대학교 학부대학 역시 무전공 입학, 자기설계전공, 마이크로디그리 등 학생의 선택권을 넓히는 제도를 도입하고 있다. 브라운처럼 학습자가 자기 경로를 정의하는 구조를 지향하지만, 그 접근은 보다 단계적이고 체계적인 설계 중심이다. 특히 학부대학은 단과대학을 넘는 융합 교육, 비교과 프로그램 확장, 공통교양 개편 등을 통해 학생 주도의 학문 탐색을 제도적으로 뒷받침하고자 한다.
+두 대학 모두 ‘학생 중심’ 교육을 넘어서 ‘학생 주도’ 교육을 말한다. 다만 브라운이 급진적 자율성을 강조한다면, 서울대는 한국의 교육 제도와 문화 속에서 실현 가능한 방식으로 유연성을 확대해 나가고 있는 중이다. 결국 이들은 서로 다른 문맥 속에서 같은 질문을 던진다. *학생이 스스로 자신의 길을 설계할 수 있는 대학은 어떤 모습이어야 하는가?* 이 질문은 앞으로의 대학 교육이 지향해야 할 방향이기도 하다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC4F427-53A9-4AE8-9116-1C862B848CD3}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -743,11 +820,12 @@
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="46.796875" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="45.5" customWidth="1"/>
+    <col min="6" max="6" width="21.796875" customWidth="1"/>
     <col min="7" max="7" width="34.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -769,8 +847,11 @@
       <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="348" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -789,8 +870,11 @@
       <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="382.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -809,8 +893,11 @@
       <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -830,8 +917,11 @@
       <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -849,6 +939,9 @@
       </c>
       <c r="G5" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
